--- a/Resultados/Volumetria/Volumetria_Tabelas.xlsx
+++ b/Resultados/Volumetria/Volumetria_Tabelas.xlsx
@@ -8,15 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Base_Total_Safra" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Regiao_centro-oeste" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Regiao_nordeste" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Regiao_norte" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Regiao_sudeste" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Regiao_sul" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Periodo_12 A 18 M" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Periodo_18 A 30 M" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Periodo_3 A 6 M" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Periodo_6 A 12 M" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Periodo_12 A 18 M" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Periodo_18 A 30 M" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Periodo_3 A 6 M" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Periodo_6 A 12 M" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -567,145 +562,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>safra</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>promotor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>detrator</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>%Promotores</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>%Neutros</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>%Detratores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B2" t="n">
-        <v>412</v>
-      </c>
-      <c r="C2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33</v>
-      </c>
-      <c r="E2" t="n">
-        <v>521</v>
-      </c>
-      <c r="F2" t="n">
-        <v>79.07869481765835</v>
-      </c>
-      <c r="G2" t="n">
-        <v>14.5873320537428</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.333973128598848</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B3" t="n">
-        <v>217</v>
-      </c>
-      <c r="C3" t="n">
-        <v>53</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21</v>
-      </c>
-      <c r="E3" t="n">
-        <v>291</v>
-      </c>
-      <c r="F3" t="n">
-        <v>74.57044673539519</v>
-      </c>
-      <c r="G3" t="n">
-        <v>18.21305841924399</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.216494845360824</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B4" t="n">
-        <v>187</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E4" t="n">
-        <v>233</v>
-      </c>
-      <c r="F4" t="n">
-        <v>80.25751072961373</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13.30472103004292</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.437768240343347</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -767,25 +623,25 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F2" t="n">
-        <v>73.12348668280872</v>
+        <v>75.5980861244019</v>
       </c>
       <c r="G2" t="n">
-        <v>18.15980629539952</v>
+        <v>19.61722488038277</v>
       </c>
       <c r="H2" t="n">
-        <v>8.716707021791766</v>
+        <v>4.784688995215311</v>
       </c>
     </row>
     <row r="3">
@@ -793,25 +649,25 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>303</v>
+        <v>408</v>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>394</v>
+        <v>526</v>
       </c>
       <c r="F3" t="n">
-        <v>76.90355329949239</v>
+        <v>77.56653992395437</v>
       </c>
       <c r="G3" t="n">
-        <v>17.51269035532995</v>
+        <v>18.63117870722434</v>
       </c>
       <c r="H3" t="n">
-        <v>5.583756345177665</v>
+        <v>3.802281368821293</v>
       </c>
     </row>
     <row r="4">
@@ -819,25 +675,25 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C4" t="n">
         <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>76.85185185185185</v>
       </c>
       <c r="G4" t="n">
-        <v>18.39622641509434</v>
+        <v>18.05555555555555</v>
       </c>
       <c r="H4" t="n">
-        <v>6.60377358490566</v>
+        <v>5.092592592592593</v>
       </c>
     </row>
   </sheetData>
@@ -906,25 +762,25 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>54</v>
+        <v>384</v>
       </c>
       <c r="F2" t="n">
-        <v>74.07407407407408</v>
+        <v>72.91666666666666</v>
       </c>
       <c r="G2" t="n">
-        <v>20.37037037037037</v>
+        <v>19.27083333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>5.555555555555555</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="3">
@@ -932,25 +788,25 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>415</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>542</v>
       </c>
       <c r="F3" t="n">
-        <v>74.54545454545455</v>
+        <v>76.56826568265683</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>16.60516605166052</v>
       </c>
       <c r="H3" t="n">
-        <v>5.454545454545454</v>
+        <v>6.826568265682657</v>
       </c>
     </row>
     <row r="4">
@@ -958,25 +814,25 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="F4" t="n">
-        <v>80.64516129032258</v>
+        <v>76.35135135135135</v>
       </c>
       <c r="G4" t="n">
-        <v>16.12903225806452</v>
+        <v>17.90540540540541</v>
       </c>
       <c r="H4" t="n">
-        <v>3.225806451612903</v>
+        <v>5.743243243243244</v>
       </c>
     </row>
   </sheetData>
@@ -1045,25 +901,25 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>394</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="F2" t="n">
-        <v>73.07692307692307</v>
+        <v>79.27565392354124</v>
       </c>
       <c r="G2" t="n">
-        <v>20.51282051282051</v>
+        <v>15.29175050301811</v>
       </c>
       <c r="H2" t="n">
-        <v>6.41025641025641</v>
+        <v>5.432595573440644</v>
       </c>
     </row>
     <row r="3">
@@ -1071,25 +927,25 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>56</v>
+        <v>343</v>
       </c>
       <c r="F3" t="n">
-        <v>80.35714285714286</v>
+        <v>82.5072886297376</v>
       </c>
       <c r="G3" t="n">
-        <v>12.5</v>
+        <v>12.53644314868805</v>
       </c>
       <c r="H3" t="n">
-        <v>7.142857142857142</v>
+        <v>4.956268221574344</v>
       </c>
     </row>
     <row r="4">
@@ -1097,25 +953,25 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="F4" t="n">
-        <v>87.5</v>
+        <v>83.40807174887892</v>
       </c>
       <c r="G4" t="n">
-        <v>9.375</v>
+        <v>11.65919282511211</v>
       </c>
       <c r="H4" t="n">
-        <v>3.125</v>
+        <v>4.932735426008969</v>
       </c>
     </row>
   </sheetData>
@@ -1184,25 +1040,25 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>562</v>
+        <v>521</v>
       </c>
       <c r="F2" t="n">
-        <v>79.7153024911032</v>
+        <v>79.07869481765835</v>
       </c>
       <c r="G2" t="n">
-        <v>15.12455516014235</v>
+        <v>14.5873320537428</v>
       </c>
       <c r="H2" t="n">
-        <v>5.160142348754448</v>
+        <v>6.333973128598848</v>
       </c>
     </row>
     <row r="3">
@@ -1210,25 +1066,25 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>434</v>
+        <v>217</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>540</v>
+        <v>291</v>
       </c>
       <c r="F3" t="n">
-        <v>80.37037037037037</v>
+        <v>74.57044673539519</v>
       </c>
       <c r="G3" t="n">
-        <v>13.7037037037037</v>
+        <v>18.21305841924399</v>
       </c>
       <c r="H3" t="n">
-        <v>5.925925925925926</v>
+        <v>7.216494845360824</v>
       </c>
     </row>
     <row r="4">
@@ -1236,581 +1092,25 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
+        <v>187</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
         <v>233</v>
       </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" t="n">
-        <v>285</v>
-      </c>
       <c r="F4" t="n">
-        <v>81.75438596491227</v>
+        <v>80.25751072961373</v>
       </c>
       <c r="G4" t="n">
-        <v>12.63157894736842</v>
+        <v>13.30472103004292</v>
       </c>
       <c r="H4" t="n">
-        <v>5.614035087719298</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>safra</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>promotor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>detrator</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>%Promotores</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>%Neutros</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>%Detratores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B2" t="n">
-        <v>419</v>
-      </c>
-      <c r="C2" t="n">
-        <v>83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E2" t="n">
-        <v>526</v>
-      </c>
-      <c r="F2" t="n">
-        <v>79.65779467680608</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.77946768060836</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.562737642585551</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B3" t="n">
-        <v>431</v>
-      </c>
-      <c r="C3" t="n">
-        <v>101</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>560</v>
-      </c>
-      <c r="F3" t="n">
-        <v>76.96428571428572</v>
-      </c>
-      <c r="G3" t="n">
-        <v>18.03571428571428</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B4" t="n">
-        <v>195</v>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" t="n">
-        <v>246</v>
-      </c>
-      <c r="F4" t="n">
-        <v>79.26829268292683</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14.22764227642276</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.504065040650407</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>safra</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>promotor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>detrator</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>%Promotores</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>%Neutros</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>%Detratores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B2" t="n">
-        <v>316</v>
-      </c>
-      <c r="C2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" t="n">
-        <v>418</v>
-      </c>
-      <c r="F2" t="n">
-        <v>75.5980861244019</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.61722488038277</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.784688995215311</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B3" t="n">
-        <v>408</v>
-      </c>
-      <c r="C3" t="n">
-        <v>98</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>526</v>
-      </c>
-      <c r="F3" t="n">
-        <v>77.56653992395437</v>
-      </c>
-      <c r="G3" t="n">
-        <v>18.63117870722434</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.802281368821293</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B4" t="n">
-        <v>166</v>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n">
-        <v>216</v>
-      </c>
-      <c r="F4" t="n">
-        <v>76.85185185185185</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18.05555555555555</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.092592592592593</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>safra</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>promotor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>detrator</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>%Promotores</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>%Neutros</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>%Detratores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B2" t="n">
-        <v>280</v>
-      </c>
-      <c r="C2" t="n">
-        <v>74</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E2" t="n">
-        <v>384</v>
-      </c>
-      <c r="F2" t="n">
-        <v>72.91666666666666</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.27083333333334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.8125</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B3" t="n">
-        <v>415</v>
-      </c>
-      <c r="C3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37</v>
-      </c>
-      <c r="E3" t="n">
-        <v>542</v>
-      </c>
-      <c r="F3" t="n">
-        <v>76.56826568265683</v>
-      </c>
-      <c r="G3" t="n">
-        <v>16.60516605166052</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.826568265682657</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B4" t="n">
-        <v>226</v>
-      </c>
-      <c r="C4" t="n">
-        <v>53</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17</v>
-      </c>
-      <c r="E4" t="n">
-        <v>296</v>
-      </c>
-      <c r="F4" t="n">
-        <v>76.35135135135135</v>
-      </c>
-      <c r="G4" t="n">
-        <v>17.90540540540541</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.743243243243244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>safra</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>promotor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>neutro</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>detrator</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>%Promotores</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>%Neutros</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>%Detratores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B2" t="n">
-        <v>394</v>
-      </c>
-      <c r="C2" t="n">
-        <v>76</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E2" t="n">
-        <v>497</v>
-      </c>
-      <c r="F2" t="n">
-        <v>79.27565392354124</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.29175050301811</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.432595573440644</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B3" t="n">
-        <v>283</v>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17</v>
-      </c>
-      <c r="E3" t="n">
-        <v>343</v>
-      </c>
-      <c r="F3" t="n">
-        <v>82.5072886297376</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12.53644314868805</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.956268221574344</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B4" t="n">
-        <v>186</v>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n">
-        <v>223</v>
-      </c>
-      <c r="F4" t="n">
-        <v>83.40807174887892</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11.65919282511211</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.932735426008969</v>
+        <v>6.437768240343347</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/Volumetria/Volumetria_Tabelas.xlsx
+++ b/Resultados/Volumetria/Volumetria_Tabelas.xlsx
@@ -8,10 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Base_Total_Safra" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Periodo_12 A 18 M" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Periodo_18 A 30 M" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Periodo_3 A 6 M" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Periodo_6 A 12 M" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Regiao_centro-oeste" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Regiao_nordeste" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Regiao_norte" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Regiao_sudeste" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Regiao_sul" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Periodo_12 A 18 M" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Periodo_18 A 30 M" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Periodo_3 A 6 M" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Periodo_6 A 12 M" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,6 +567,145 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>safra</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>promotor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>detrator</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>%Promotores</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>%Neutros</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>%Detratores</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="n">
+        <v>412</v>
+      </c>
+      <c r="C2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33</v>
+      </c>
+      <c r="E2" t="n">
+        <v>521</v>
+      </c>
+      <c r="F2" t="n">
+        <v>79.07869481765835</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.5873320537428</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.333973128598848</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="n">
+        <v>217</v>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3" t="n">
+        <v>291</v>
+      </c>
+      <c r="F3" t="n">
+        <v>74.57044673539519</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.21305841924399</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.216494845360824</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="n">
+        <v>187</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>233</v>
+      </c>
+      <c r="F4" t="n">
+        <v>80.25751072961373</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.30472103004292</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.437768240343347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -623,25 +767,25 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F2" t="n">
-        <v>75.5980861244019</v>
+        <v>73.12348668280872</v>
       </c>
       <c r="G2" t="n">
-        <v>19.61722488038277</v>
+        <v>18.15980629539952</v>
       </c>
       <c r="H2" t="n">
-        <v>4.784688995215311</v>
+        <v>8.716707021791766</v>
       </c>
     </row>
     <row r="3">
@@ -649,25 +793,25 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>408</v>
+        <v>303</v>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>526</v>
+        <v>394</v>
       </c>
       <c r="F3" t="n">
-        <v>77.56653992395437</v>
+        <v>76.90355329949239</v>
       </c>
       <c r="G3" t="n">
-        <v>18.63117870722434</v>
+        <v>17.51269035532995</v>
       </c>
       <c r="H3" t="n">
-        <v>3.802281368821293</v>
+        <v>5.583756345177665</v>
       </c>
     </row>
     <row r="4">
@@ -675,25 +819,25 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C4" t="n">
         <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F4" t="n">
-        <v>76.85185185185185</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
-        <v>18.05555555555555</v>
+        <v>18.39622641509434</v>
       </c>
       <c r="H4" t="n">
-        <v>5.092592592592593</v>
+        <v>6.60377358490566</v>
       </c>
     </row>
   </sheetData>
@@ -762,25 +906,25 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>384</v>
+        <v>54</v>
       </c>
       <c r="F2" t="n">
-        <v>72.91666666666666</v>
+        <v>74.07407407407408</v>
       </c>
       <c r="G2" t="n">
-        <v>19.27083333333334</v>
+        <v>20.37037037037037</v>
       </c>
       <c r="H2" t="n">
-        <v>7.8125</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="3">
@@ -788,25 +932,25 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>415</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>542</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>76.56826568265683</v>
+        <v>74.54545454545455</v>
       </c>
       <c r="G3" t="n">
-        <v>16.60516605166052</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>6.826568265682657</v>
+        <v>5.454545454545454</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +958,25 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>76.35135135135135</v>
+        <v>80.64516129032258</v>
       </c>
       <c r="G4" t="n">
-        <v>17.90540540540541</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="H4" t="n">
-        <v>5.743243243243244</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
   </sheetData>
@@ -901,25 +1045,25 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>394</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>497</v>
+        <v>78</v>
       </c>
       <c r="F2" t="n">
-        <v>79.27565392354124</v>
+        <v>73.07692307692307</v>
       </c>
       <c r="G2" t="n">
-        <v>15.29175050301811</v>
+        <v>20.51282051282051</v>
       </c>
       <c r="H2" t="n">
-        <v>5.432595573440644</v>
+        <v>6.41025641025641</v>
       </c>
     </row>
     <row r="3">
@@ -927,25 +1071,25 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>343</v>
+        <v>56</v>
       </c>
       <c r="F3" t="n">
-        <v>82.5072886297376</v>
+        <v>80.35714285714286</v>
       </c>
       <c r="G3" t="n">
-        <v>12.53644314868805</v>
+        <v>12.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.956268221574344</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="4">
@@ -953,25 +1097,25 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>83.40807174887892</v>
+        <v>87.5</v>
       </c>
       <c r="G4" t="n">
-        <v>11.65919282511211</v>
+        <v>9.375</v>
       </c>
       <c r="H4" t="n">
-        <v>4.932735426008969</v>
+        <v>3.125</v>
       </c>
     </row>
   </sheetData>
@@ -1040,25 +1184,25 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="F2" t="n">
-        <v>79.07869481765835</v>
+        <v>79.7153024911032</v>
       </c>
       <c r="G2" t="n">
-        <v>14.5873320537428</v>
+        <v>15.12455516014235</v>
       </c>
       <c r="H2" t="n">
-        <v>6.333973128598848</v>
+        <v>5.160142348754448</v>
       </c>
     </row>
     <row r="3">
@@ -1066,25 +1210,25 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>217</v>
+        <v>434</v>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>291</v>
+        <v>540</v>
       </c>
       <c r="F3" t="n">
-        <v>74.57044673539519</v>
+        <v>80.37037037037037</v>
       </c>
       <c r="G3" t="n">
-        <v>18.21305841924399</v>
+        <v>13.7037037037037</v>
       </c>
       <c r="H3" t="n">
-        <v>7.216494845360824</v>
+        <v>5.925925925925926</v>
       </c>
     </row>
     <row r="4">
@@ -1092,25 +1236,581 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F4" t="n">
-        <v>80.25751072961373</v>
+        <v>81.75438596491227</v>
       </c>
       <c r="G4" t="n">
-        <v>13.30472103004292</v>
+        <v>12.63157894736842</v>
       </c>
       <c r="H4" t="n">
-        <v>6.437768240343347</v>
+        <v>5.614035087719298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>safra</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>promotor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>detrator</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>%Promotores</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>%Neutros</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>%Detratores</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="n">
+        <v>419</v>
+      </c>
+      <c r="C2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E2" t="n">
+        <v>526</v>
+      </c>
+      <c r="F2" t="n">
+        <v>79.65779467680608</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.77946768060836</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.562737642585551</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="n">
+        <v>431</v>
+      </c>
+      <c r="C3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28</v>
+      </c>
+      <c r="E3" t="n">
+        <v>560</v>
+      </c>
+      <c r="F3" t="n">
+        <v>76.96428571428572</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.03571428571428</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="n">
+        <v>195</v>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>246</v>
+      </c>
+      <c r="F4" t="n">
+        <v>79.26829268292683</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.22764227642276</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.504065040650407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>safra</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>promotor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>detrator</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>%Promotores</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>%Neutros</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>%Detratores</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="n">
+        <v>316</v>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>418</v>
+      </c>
+      <c r="F2" t="n">
+        <v>75.5980861244019</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19.61722488038277</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.784688995215311</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="n">
+        <v>408</v>
+      </c>
+      <c r="C3" t="n">
+        <v>98</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>526</v>
+      </c>
+      <c r="F3" t="n">
+        <v>77.56653992395437</v>
+      </c>
+      <c r="G3" t="n">
+        <v>18.63117870722434</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.802281368821293</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="n">
+        <v>166</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>216</v>
+      </c>
+      <c r="F4" t="n">
+        <v>76.85185185185185</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.05555555555555</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.092592592592593</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>safra</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>promotor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>detrator</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>%Promotores</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>%Neutros</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>%Detratores</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="n">
+        <v>280</v>
+      </c>
+      <c r="C2" t="n">
+        <v>74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>384</v>
+      </c>
+      <c r="F2" t="n">
+        <v>72.91666666666666</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19.27083333333334</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.8125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="n">
+        <v>415</v>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3" t="n">
+        <v>542</v>
+      </c>
+      <c r="F3" t="n">
+        <v>76.56826568265683</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.60516605166052</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.826568265682657</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="n">
+        <v>226</v>
+      </c>
+      <c r="C4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>296</v>
+      </c>
+      <c r="F4" t="n">
+        <v>76.35135135135135</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.90540540540541</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.743243243243244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>safra</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>promotor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>detrator</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>%Promotores</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>%Neutros</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>%Detratores</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="n">
+        <v>394</v>
+      </c>
+      <c r="C2" t="n">
+        <v>76</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>497</v>
+      </c>
+      <c r="F2" t="n">
+        <v>79.27565392354124</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.29175050301811</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.432595573440644</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="n">
+        <v>283</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>343</v>
+      </c>
+      <c r="F3" t="n">
+        <v>82.5072886297376</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.53644314868805</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.956268221574344</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B4" t="n">
+        <v>186</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>223</v>
+      </c>
+      <c r="F4" t="n">
+        <v>83.40807174887892</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.65919282511211</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.932735426008969</v>
       </c>
     </row>
   </sheetData>
